--- a/source_data/uploaders/Statements and speeches_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Statements and speeches_hierarchy_aspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6E5DCD-C308-DE4F-B43F-E2EF7008C0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EE442-B382-594C-BC71-8254B1EEAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="860">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -1702,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Box</t>
+    <t>box</t>
   </si>
   <si>
     <t>26</t>
@@ -1744,7 +1741,7 @@
     <t>H-0001</t>
   </si>
   <si>
-    <t>Creation</t>
+    <t>creation</t>
   </si>
   <si>
     <t>1945-11-21</t>
@@ -2621,7 +2618,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2969,7 +2965,7 @@
   <dimension ref="A1:HE64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5757,23 +5753,11 @@
       <c r="K6" t="s">
         <v>545</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>547</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>548</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:213" x14ac:dyDescent="0.2">
@@ -5781,37 +5765,25 @@
         <v>542</v>
       </c>
       <c r="E7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" t="s">
         <v>550</v>
       </c>
-      <c r="F7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>551</v>
       </c>
-      <c r="I7" t="s">
-        <v>552</v>
-      </c>
       <c r="K7" t="s">
         <v>545</v>
       </c>
-      <c r="BH7" t="s">
-        <v>547</v>
-      </c>
       <c r="BI7" t="s">
         <v>545</v>
       </c>
       <c r="BJ7" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:213" x14ac:dyDescent="0.2">
@@ -5819,73 +5791,70 @@
         <v>542</v>
       </c>
       <c r="E8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8" t="s">
         <v>553</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>554</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>555</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>556</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK8" t="s">
         <v>557</v>
       </c>
-      <c r="K8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>549</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BT8" t="s">
         <v>558</v>
       </c>
-      <c r="BL8" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>559</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>560</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="CM8" t="s">
         <v>561</v>
       </c>
-      <c r="CM8" t="s">
+      <c r="CN8" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE8" t="s">
         <v>562</v>
       </c>
-      <c r="CN8" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE8" t="s">
+      <c r="EF8" t="s">
         <v>563</v>
       </c>
-      <c r="EF8" t="s">
+      <c r="EG8" t="s">
         <v>564</v>
       </c>
-      <c r="EG8" t="s">
+      <c r="EH8" t="s">
         <v>565</v>
       </c>
-      <c r="EH8" t="s">
+      <c r="FO8" t="s">
         <v>566</v>
       </c>
-      <c r="FO8" t="s">
+      <c r="FP8" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA8" t="s">
         <v>567</v>
-      </c>
-      <c r="FP8" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>568</v>
       </c>
       <c r="GB8" t="s">
         <v>545</v>
@@ -5899,37 +5868,25 @@
         <v>542</v>
       </c>
       <c r="E9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" t="s">
+        <v>568</v>
+      </c>
+      <c r="H9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I9" t="s">
+        <v>551</v>
+      </c>
+      <c r="K9" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI9" t="s">
         <v>569</v>
       </c>
-      <c r="F9" t="s">
-        <v>569</v>
-      </c>
-      <c r="H9" t="s">
-        <v>551</v>
-      </c>
-      <c r="I9" t="s">
-        <v>552</v>
-      </c>
-      <c r="K9" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>570</v>
-      </c>
       <c r="BJ9" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB9" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:213" x14ac:dyDescent="0.2">
@@ -5937,85 +5894,85 @@
         <v>542</v>
       </c>
       <c r="E10" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" t="s">
         <v>571</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>572</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" t="s">
+        <v>556</v>
+      </c>
+      <c r="K10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD10" t="s">
         <v>573</v>
       </c>
-      <c r="H10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I10" t="s">
-        <v>557</v>
-      </c>
-      <c r="K10" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>574</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>575</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI10" t="s">
         <v>576</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="BI10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK10" t="s">
         <v>577</v>
       </c>
-      <c r="BH10" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>545</v>
+      </c>
+      <c r="CM10" t="s">
         <v>578</v>
       </c>
-      <c r="BL10" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>545</v>
-      </c>
-      <c r="CM10" t="s">
+      <c r="CN10" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE10" t="s">
         <v>579</v>
       </c>
-      <c r="CN10" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE10" t="s">
+      <c r="EF10" t="s">
         <v>580</v>
       </c>
-      <c r="EF10" t="s">
+      <c r="EG10" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO10" t="s">
         <v>581</v>
       </c>
-      <c r="EG10" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO10" t="s">
+      <c r="FP10" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA10" t="s">
         <v>582</v>
-      </c>
-      <c r="FP10" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA10" t="s">
-        <v>583</v>
       </c>
       <c r="GB10" t="s">
         <v>545</v>
@@ -6029,73 +5986,70 @@
         <v>542</v>
       </c>
       <c r="E11" t="s">
+        <v>583</v>
+      </c>
+      <c r="F11" t="s">
         <v>584</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>585</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" t="s">
+        <v>556</v>
+      </c>
+      <c r="K11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK11" t="s">
         <v>586</v>
       </c>
-      <c r="H11" t="s">
-        <v>556</v>
-      </c>
-      <c r="I11" t="s">
-        <v>557</v>
-      </c>
-      <c r="K11" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV11" t="s">
         <v>587</v>
       </c>
-      <c r="BL11" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV11" t="s">
+      <c r="CM11" t="s">
         <v>588</v>
       </c>
-      <c r="CM11" t="s">
+      <c r="CN11" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO11" t="s">
         <v>589</v>
       </c>
-      <c r="CN11" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF11" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO11" t="s">
+      <c r="FP11" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA11" t="s">
         <v>590</v>
-      </c>
-      <c r="FP11" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA11" t="s">
-        <v>591</v>
       </c>
       <c r="GB11" t="s">
         <v>545</v>
@@ -6109,73 +6063,70 @@
         <v>542</v>
       </c>
       <c r="E12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" t="s">
         <v>592</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>593</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK12" t="s">
         <v>594</v>
       </c>
-      <c r="H12" t="s">
-        <v>556</v>
-      </c>
-      <c r="I12" t="s">
-        <v>557</v>
-      </c>
-      <c r="K12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM12" t="s">
         <v>595</v>
       </c>
-      <c r="BL12" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM12" t="s">
+      <c r="CN12" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO12" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP12" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA12" t="s">
         <v>596</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE12" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF12" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO12" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP12" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA12" t="s">
-        <v>597</v>
       </c>
       <c r="GB12" t="s">
         <v>545</v>
@@ -6189,73 +6140,70 @@
         <v>542</v>
       </c>
       <c r="E13" t="s">
+        <v>597</v>
+      </c>
+      <c r="F13" t="s">
         <v>598</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>599</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" t="s">
+        <v>556</v>
+      </c>
+      <c r="K13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK13" t="s">
         <v>600</v>
       </c>
-      <c r="H13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I13" t="s">
-        <v>557</v>
-      </c>
-      <c r="K13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM13" t="s">
         <v>601</v>
       </c>
-      <c r="BL13" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM13" t="s">
+      <c r="CN13" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO13" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP13" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA13" t="s">
         <v>602</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE13" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO13" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP13" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA13" t="s">
-        <v>603</v>
       </c>
       <c r="GB13" t="s">
         <v>545</v>
@@ -6269,73 +6217,70 @@
         <v>542</v>
       </c>
       <c r="E14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F14" t="s">
         <v>604</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>605</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" t="s">
+        <v>556</v>
+      </c>
+      <c r="K14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK14" t="s">
         <v>606</v>
       </c>
-      <c r="H14" t="s">
-        <v>556</v>
-      </c>
-      <c r="I14" t="s">
-        <v>557</v>
-      </c>
-      <c r="K14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM14" t="s">
         <v>607</v>
       </c>
-      <c r="BL14" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM14" t="s">
+      <c r="CN14" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA14" t="s">
         <v>608</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG14" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO14" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP14" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA14" t="s">
-        <v>609</v>
       </c>
       <c r="GB14" t="s">
         <v>545</v>
@@ -6349,73 +6294,70 @@
         <v>542</v>
       </c>
       <c r="E15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F15" t="s">
         <v>610</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>611</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" t="s">
+        <v>556</v>
+      </c>
+      <c r="K15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK15" t="s">
         <v>612</v>
       </c>
-      <c r="H15" t="s">
-        <v>556</v>
-      </c>
-      <c r="I15" t="s">
-        <v>557</v>
-      </c>
-      <c r="K15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM15" t="s">
         <v>613</v>
       </c>
-      <c r="BL15" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM15" t="s">
+      <c r="CN15" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO15" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA15" t="s">
         <v>614</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO15" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP15" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA15" t="s">
-        <v>615</v>
       </c>
       <c r="GB15" t="s">
         <v>545</v>
@@ -6429,73 +6371,70 @@
         <v>542</v>
       </c>
       <c r="E16" t="s">
+        <v>615</v>
+      </c>
+      <c r="F16" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" t="s">
         <v>616</v>
       </c>
-      <c r="F16" t="s">
-        <v>585</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK16" t="s">
         <v>617</v>
       </c>
-      <c r="H16" t="s">
-        <v>556</v>
-      </c>
-      <c r="I16" t="s">
-        <v>557</v>
-      </c>
-      <c r="K16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM16" t="s">
         <v>618</v>
       </c>
-      <c r="BL16" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM16" t="s">
+      <c r="CN16" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA16" t="s">
         <v>619</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE16" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA16" t="s">
-        <v>620</v>
       </c>
       <c r="GB16" t="s">
         <v>545</v>
@@ -6509,73 +6448,70 @@
         <v>542</v>
       </c>
       <c r="E17" t="s">
+        <v>620</v>
+      </c>
+      <c r="F17" t="s">
+        <v>592</v>
+      </c>
+      <c r="G17" t="s">
         <v>621</v>
       </c>
-      <c r="F17" t="s">
-        <v>593</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>555</v>
+      </c>
+      <c r="I17" t="s">
+        <v>556</v>
+      </c>
+      <c r="K17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK17" t="s">
         <v>622</v>
       </c>
-      <c r="H17" t="s">
-        <v>556</v>
-      </c>
-      <c r="I17" t="s">
-        <v>557</v>
-      </c>
-      <c r="K17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM17" t="s">
         <v>623</v>
       </c>
-      <c r="BL17" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM17" t="s">
+      <c r="CN17" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO17" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP17" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA17" t="s">
         <v>624</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE17" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF17" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG17" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH17" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO17" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP17" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA17" t="s">
-        <v>625</v>
       </c>
       <c r="GB17" t="s">
         <v>545</v>
@@ -6589,73 +6525,70 @@
         <v>542</v>
       </c>
       <c r="E18" t="s">
+        <v>625</v>
+      </c>
+      <c r="F18" t="s">
+        <v>610</v>
+      </c>
+      <c r="G18" t="s">
         <v>626</v>
       </c>
-      <c r="F18" t="s">
-        <v>611</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>555</v>
+      </c>
+      <c r="I18" t="s">
+        <v>556</v>
+      </c>
+      <c r="K18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK18" t="s">
         <v>627</v>
       </c>
-      <c r="H18" t="s">
-        <v>556</v>
-      </c>
-      <c r="I18" t="s">
-        <v>557</v>
-      </c>
-      <c r="K18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK18" t="s">
+      <c r="BL18" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM18" t="s">
         <v>628</v>
       </c>
-      <c r="BL18" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>629</v>
-      </c>
       <c r="CN18" t="s">
         <v>545</v>
       </c>
       <c r="EE18" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF18" t="s">
         <v>563</v>
       </c>
-      <c r="EF18" t="s">
+      <c r="EG18" t="s">
         <v>564</v>
       </c>
-      <c r="EG18" t="s">
+      <c r="EH18" t="s">
         <v>565</v>
       </c>
-      <c r="EH18" t="s">
-        <v>566</v>
-      </c>
       <c r="FO18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="FP18" t="s">
         <v>545</v>
       </c>
       <c r="GA18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="GB18" t="s">
         <v>545</v>
@@ -6669,73 +6602,70 @@
         <v>542</v>
       </c>
       <c r="E19" t="s">
+        <v>629</v>
+      </c>
+      <c r="F19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" t="s">
         <v>630</v>
       </c>
-      <c r="F19" t="s">
-        <v>593</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>555</v>
+      </c>
+      <c r="I19" t="s">
+        <v>556</v>
+      </c>
+      <c r="K19" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK19" t="s">
         <v>631</v>
       </c>
-      <c r="H19" t="s">
-        <v>556</v>
-      </c>
-      <c r="I19" t="s">
-        <v>557</v>
-      </c>
-      <c r="K19" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK19" t="s">
+      <c r="BL19" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM19" t="s">
         <v>632</v>
       </c>
-      <c r="BL19" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM19" t="s">
+      <c r="CN19" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE19" t="s">
         <v>633</v>
       </c>
-      <c r="CN19" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE19" t="s">
+      <c r="EF19" t="s">
         <v>634</v>
       </c>
-      <c r="EF19" t="s">
+      <c r="EG19" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH19" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO19" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP19" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA19" t="s">
         <v>635</v>
-      </c>
-      <c r="EG19" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH19" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO19" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP19" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA19" t="s">
-        <v>636</v>
       </c>
       <c r="GB19" t="s">
         <v>545</v>
@@ -6749,73 +6679,70 @@
         <v>542</v>
       </c>
       <c r="E20" t="s">
+        <v>636</v>
+      </c>
+      <c r="F20" t="s">
+        <v>598</v>
+      </c>
+      <c r="G20" t="s">
         <v>637</v>
       </c>
-      <c r="F20" t="s">
-        <v>599</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>555</v>
+      </c>
+      <c r="I20" t="s">
+        <v>556</v>
+      </c>
+      <c r="K20" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK20" t="s">
         <v>638</v>
       </c>
-      <c r="H20" t="s">
-        <v>556</v>
-      </c>
-      <c r="I20" t="s">
-        <v>557</v>
-      </c>
-      <c r="K20" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK20" t="s">
+      <c r="BL20" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM20" t="s">
         <v>639</v>
       </c>
-      <c r="BL20" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM20" t="s">
+      <c r="CN20" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE20" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH20" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO20" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP20" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA20" t="s">
         <v>640</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE20" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF20" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG20" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH20" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO20" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP20" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA20" t="s">
-        <v>641</v>
       </c>
       <c r="GB20" t="s">
         <v>545</v>
@@ -6829,73 +6756,70 @@
         <v>542</v>
       </c>
       <c r="E21" t="s">
+        <v>641</v>
+      </c>
+      <c r="F21" t="s">
+        <v>604</v>
+      </c>
+      <c r="G21" t="s">
         <v>642</v>
       </c>
-      <c r="F21" t="s">
-        <v>605</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I21" t="s">
+        <v>556</v>
+      </c>
+      <c r="K21" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK21" t="s">
         <v>643</v>
       </c>
-      <c r="H21" t="s">
-        <v>556</v>
-      </c>
-      <c r="I21" t="s">
-        <v>557</v>
-      </c>
-      <c r="K21" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK21" t="s">
+      <c r="BL21" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>587</v>
+      </c>
+      <c r="CM21" t="s">
         <v>644</v>
       </c>
-      <c r="BL21" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM21" t="s">
+      <c r="CN21" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE21" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH21" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO21" t="s">
+        <v>589</v>
+      </c>
+      <c r="FP21" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA21" t="s">
         <v>645</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE21" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF21" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG21" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH21" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO21" t="s">
-        <v>590</v>
-      </c>
-      <c r="FP21" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA21" t="s">
-        <v>646</v>
       </c>
       <c r="GB21" t="s">
         <v>545</v>
@@ -6909,73 +6833,70 @@
         <v>542</v>
       </c>
       <c r="E22" t="s">
+        <v>646</v>
+      </c>
+      <c r="F22" t="s">
         <v>647</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>648</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>555</v>
+      </c>
+      <c r="I22" t="s">
+        <v>556</v>
+      </c>
+      <c r="K22" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK22" t="s">
         <v>649</v>
       </c>
-      <c r="H22" t="s">
-        <v>556</v>
-      </c>
-      <c r="I22" t="s">
-        <v>557</v>
-      </c>
-      <c r="K22" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK22" t="s">
+      <c r="BL22" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV22" t="s">
         <v>650</v>
       </c>
-      <c r="BL22" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU22" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV22" t="s">
+      <c r="CM22" t="s">
         <v>651</v>
       </c>
-      <c r="CM22" t="s">
+      <c r="CN22" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE22" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH22" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO22" t="s">
         <v>652</v>
       </c>
-      <c r="CN22" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE22" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF22" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG22" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH22" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO22" t="s">
+      <c r="FP22" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA22" t="s">
         <v>653</v>
-      </c>
-      <c r="FP22" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA22" t="s">
-        <v>654</v>
       </c>
       <c r="GB22" t="s">
         <v>545</v>
@@ -6989,73 +6910,70 @@
         <v>542</v>
       </c>
       <c r="E23" t="s">
+        <v>654</v>
+      </c>
+      <c r="F23" t="s">
         <v>655</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>656</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>555</v>
+      </c>
+      <c r="I23" t="s">
+        <v>556</v>
+      </c>
+      <c r="K23" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK23" t="s">
         <v>657</v>
       </c>
-      <c r="H23" t="s">
-        <v>556</v>
-      </c>
-      <c r="I23" t="s">
-        <v>557</v>
-      </c>
-      <c r="K23" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK23" t="s">
+      <c r="BL23" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM23" t="s">
         <v>658</v>
       </c>
-      <c r="BL23" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM23" t="s">
+      <c r="CN23" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE23" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG23" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH23" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO23" t="s">
+        <v>652</v>
+      </c>
+      <c r="FP23" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA23" t="s">
         <v>659</v>
-      </c>
-      <c r="CN23" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE23" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF23" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG23" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH23" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO23" t="s">
-        <v>653</v>
-      </c>
-      <c r="FP23" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA23" t="s">
-        <v>660</v>
       </c>
       <c r="GB23" t="s">
         <v>545</v>
@@ -7069,67 +6987,64 @@
         <v>542</v>
       </c>
       <c r="E24" t="s">
+        <v>660</v>
+      </c>
+      <c r="F24" t="s">
         <v>661</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>662</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>555</v>
+      </c>
+      <c r="I24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K24" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK24" t="s">
         <v>663</v>
       </c>
-      <c r="H24" t="s">
-        <v>556</v>
-      </c>
-      <c r="I24" t="s">
-        <v>557</v>
-      </c>
-      <c r="K24" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK24" t="s">
+      <c r="BL24" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM24" t="s">
         <v>664</v>
       </c>
-      <c r="BL24" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>665</v>
-      </c>
       <c r="CN24" t="s">
         <v>545</v>
       </c>
       <c r="EE24" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF24" t="s">
         <v>634</v>
       </c>
-      <c r="EF24" t="s">
-        <v>635</v>
-      </c>
       <c r="EG24" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH24" t="s">
         <v>565</v>
       </c>
-      <c r="EH24" t="s">
-        <v>566</v>
-      </c>
       <c r="FO24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP24" t="s">
         <v>545</v>
@@ -7146,67 +7061,64 @@
         <v>542</v>
       </c>
       <c r="E25" t="s">
+        <v>665</v>
+      </c>
+      <c r="F25" t="s">
         <v>666</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>667</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>555</v>
+      </c>
+      <c r="I25" t="s">
+        <v>556</v>
+      </c>
+      <c r="K25" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK25" t="s">
         <v>668</v>
       </c>
-      <c r="H25" t="s">
-        <v>556</v>
-      </c>
-      <c r="I25" t="s">
-        <v>557</v>
-      </c>
-      <c r="K25" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK25" t="s">
+      <c r="BL25" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM25" t="s">
         <v>669</v>
       </c>
-      <c r="BL25" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM25" t="s">
-        <v>670</v>
-      </c>
       <c r="CN25" t="s">
         <v>545</v>
       </c>
       <c r="EE25" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF25" t="s">
         <v>634</v>
       </c>
-      <c r="EF25" t="s">
-        <v>635</v>
-      </c>
       <c r="EG25" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH25" t="s">
         <v>565</v>
       </c>
-      <c r="EH25" t="s">
-        <v>566</v>
-      </c>
       <c r="FO25" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP25" t="s">
         <v>545</v>
@@ -7223,67 +7135,64 @@
         <v>542</v>
       </c>
       <c r="E26" t="s">
+        <v>670</v>
+      </c>
+      <c r="F26" t="s">
         <v>671</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>672</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>555</v>
+      </c>
+      <c r="I26" t="s">
+        <v>556</v>
+      </c>
+      <c r="K26" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK26" t="s">
         <v>673</v>
       </c>
-      <c r="H26" t="s">
-        <v>556</v>
-      </c>
-      <c r="I26" t="s">
-        <v>557</v>
-      </c>
-      <c r="K26" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK26" t="s">
+      <c r="BL26" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM26" t="s">
         <v>674</v>
       </c>
-      <c r="BL26" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>675</v>
-      </c>
       <c r="CN26" t="s">
         <v>545</v>
       </c>
       <c r="EE26" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF26" t="s">
         <v>634</v>
       </c>
-      <c r="EF26" t="s">
-        <v>635</v>
-      </c>
       <c r="EG26" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH26" t="s">
         <v>565</v>
       </c>
-      <c r="EH26" t="s">
-        <v>566</v>
-      </c>
       <c r="FO26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP26" t="s">
         <v>545</v>
@@ -7300,67 +7209,64 @@
         <v>542</v>
       </c>
       <c r="E27" t="s">
+        <v>675</v>
+      </c>
+      <c r="F27" t="s">
         <v>676</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>677</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>555</v>
+      </c>
+      <c r="I27" t="s">
+        <v>556</v>
+      </c>
+      <c r="K27" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK27" t="s">
         <v>678</v>
       </c>
-      <c r="H27" t="s">
-        <v>556</v>
-      </c>
-      <c r="I27" t="s">
-        <v>557</v>
-      </c>
-      <c r="K27" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK27" t="s">
+      <c r="BL27" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM27" t="s">
         <v>679</v>
       </c>
-      <c r="BL27" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM27" t="s">
-        <v>680</v>
-      </c>
       <c r="CN27" t="s">
         <v>545</v>
       </c>
       <c r="EE27" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF27" t="s">
         <v>634</v>
       </c>
-      <c r="EF27" t="s">
-        <v>635</v>
-      </c>
       <c r="EG27" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH27" t="s">
         <v>565</v>
       </c>
-      <c r="EH27" t="s">
-        <v>566</v>
-      </c>
       <c r="FO27" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP27" t="s">
         <v>545</v>
@@ -7377,67 +7283,64 @@
         <v>542</v>
       </c>
       <c r="E28" t="s">
+        <v>680</v>
+      </c>
+      <c r="F28" t="s">
         <v>681</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>682</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>555</v>
+      </c>
+      <c r="I28" t="s">
+        <v>556</v>
+      </c>
+      <c r="K28" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK28" t="s">
         <v>683</v>
       </c>
-      <c r="H28" t="s">
-        <v>556</v>
-      </c>
-      <c r="I28" t="s">
-        <v>557</v>
-      </c>
-      <c r="K28" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK28" t="s">
+      <c r="BL28" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM28" t="s">
         <v>684</v>
       </c>
-      <c r="BL28" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU28" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM28" t="s">
-        <v>685</v>
-      </c>
       <c r="CN28" t="s">
         <v>545</v>
       </c>
       <c r="EE28" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF28" t="s">
         <v>634</v>
       </c>
-      <c r="EF28" t="s">
-        <v>635</v>
-      </c>
       <c r="EG28" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH28" t="s">
         <v>565</v>
       </c>
-      <c r="EH28" t="s">
-        <v>566</v>
-      </c>
       <c r="FO28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP28" t="s">
         <v>545</v>
@@ -7454,67 +7357,64 @@
         <v>542</v>
       </c>
       <c r="E29" t="s">
+        <v>685</v>
+      </c>
+      <c r="F29" t="s">
         <v>686</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>687</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>555</v>
+      </c>
+      <c r="I29" t="s">
+        <v>556</v>
+      </c>
+      <c r="K29" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK29" t="s">
         <v>688</v>
       </c>
-      <c r="H29" t="s">
-        <v>556</v>
-      </c>
-      <c r="I29" t="s">
-        <v>557</v>
-      </c>
-      <c r="K29" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK29" t="s">
+      <c r="BL29" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM29" t="s">
         <v>689</v>
       </c>
-      <c r="BL29" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU29" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV29" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM29" t="s">
-        <v>690</v>
-      </c>
       <c r="CN29" t="s">
         <v>545</v>
       </c>
       <c r="EE29" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF29" t="s">
         <v>634</v>
       </c>
-      <c r="EF29" t="s">
-        <v>635</v>
-      </c>
       <c r="EG29" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH29" t="s">
         <v>565</v>
       </c>
-      <c r="EH29" t="s">
-        <v>566</v>
-      </c>
       <c r="FO29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP29" t="s">
         <v>545</v>
@@ -7531,67 +7431,64 @@
         <v>542</v>
       </c>
       <c r="E30" t="s">
+        <v>690</v>
+      </c>
+      <c r="F30" t="s">
         <v>691</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>692</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>555</v>
+      </c>
+      <c r="I30" t="s">
+        <v>556</v>
+      </c>
+      <c r="K30" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK30" t="s">
         <v>693</v>
       </c>
-      <c r="H30" t="s">
-        <v>556</v>
-      </c>
-      <c r="I30" t="s">
-        <v>557</v>
-      </c>
-      <c r="K30" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK30" t="s">
+      <c r="BL30" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM30" t="s">
         <v>694</v>
       </c>
-      <c r="BL30" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU30" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM30" t="s">
-        <v>695</v>
-      </c>
       <c r="CN30" t="s">
         <v>545</v>
       </c>
       <c r="EE30" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF30" t="s">
         <v>634</v>
       </c>
-      <c r="EF30" t="s">
-        <v>635</v>
-      </c>
       <c r="EG30" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH30" t="s">
         <v>565</v>
       </c>
-      <c r="EH30" t="s">
-        <v>566</v>
-      </c>
       <c r="FO30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP30" t="s">
         <v>545</v>
@@ -7608,67 +7505,64 @@
         <v>542</v>
       </c>
       <c r="E31" t="s">
+        <v>695</v>
+      </c>
+      <c r="F31" t="s">
         <v>696</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>697</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>555</v>
+      </c>
+      <c r="I31" t="s">
+        <v>556</v>
+      </c>
+      <c r="K31" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK31" t="s">
         <v>698</v>
       </c>
-      <c r="H31" t="s">
-        <v>556</v>
-      </c>
-      <c r="I31" t="s">
-        <v>557</v>
-      </c>
-      <c r="K31" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK31" t="s">
+      <c r="BL31" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM31" t="s">
         <v>699</v>
       </c>
-      <c r="BL31" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU31" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM31" t="s">
-        <v>700</v>
-      </c>
       <c r="CN31" t="s">
         <v>545</v>
       </c>
       <c r="EE31" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF31" t="s">
         <v>634</v>
       </c>
-      <c r="EF31" t="s">
-        <v>635</v>
-      </c>
       <c r="EG31" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH31" t="s">
         <v>565</v>
       </c>
-      <c r="EH31" t="s">
-        <v>566</v>
-      </c>
       <c r="FO31" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP31" t="s">
         <v>545</v>
@@ -7685,67 +7579,64 @@
         <v>542</v>
       </c>
       <c r="E32" t="s">
+        <v>700</v>
+      </c>
+      <c r="F32" t="s">
         <v>701</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>702</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>555</v>
+      </c>
+      <c r="I32" t="s">
+        <v>556</v>
+      </c>
+      <c r="K32" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK32" t="s">
         <v>703</v>
       </c>
-      <c r="H32" t="s">
-        <v>556</v>
-      </c>
-      <c r="I32" t="s">
-        <v>557</v>
-      </c>
-      <c r="K32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK32" t="s">
+      <c r="BL32" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM32" t="s">
         <v>704</v>
       </c>
-      <c r="BL32" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>705</v>
-      </c>
       <c r="CN32" t="s">
         <v>545</v>
       </c>
       <c r="EE32" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF32" t="s">
         <v>634</v>
       </c>
-      <c r="EF32" t="s">
-        <v>635</v>
-      </c>
       <c r="EG32" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH32" t="s">
         <v>565</v>
       </c>
-      <c r="EH32" t="s">
-        <v>566</v>
-      </c>
       <c r="FO32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP32" t="s">
         <v>545</v>
@@ -7762,67 +7653,64 @@
         <v>542</v>
       </c>
       <c r="E33" t="s">
+        <v>705</v>
+      </c>
+      <c r="F33" t="s">
         <v>706</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>707</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>555</v>
+      </c>
+      <c r="I33" t="s">
+        <v>556</v>
+      </c>
+      <c r="K33" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK33" t="s">
         <v>708</v>
       </c>
-      <c r="H33" t="s">
-        <v>556</v>
-      </c>
-      <c r="I33" t="s">
-        <v>557</v>
-      </c>
-      <c r="K33" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK33" t="s">
+      <c r="BL33" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM33" t="s">
         <v>709</v>
       </c>
-      <c r="BL33" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>710</v>
-      </c>
       <c r="CN33" t="s">
         <v>545</v>
       </c>
       <c r="EE33" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF33" t="s">
         <v>634</v>
       </c>
-      <c r="EF33" t="s">
-        <v>635</v>
-      </c>
       <c r="EG33" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH33" t="s">
         <v>565</v>
       </c>
-      <c r="EH33" t="s">
-        <v>566</v>
-      </c>
       <c r="FO33" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP33" t="s">
         <v>545</v>
@@ -7839,67 +7727,64 @@
         <v>542</v>
       </c>
       <c r="E34" t="s">
+        <v>710</v>
+      </c>
+      <c r="F34" t="s">
         <v>711</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>712</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>555</v>
+      </c>
+      <c r="I34" t="s">
+        <v>556</v>
+      </c>
+      <c r="K34" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK34" t="s">
         <v>713</v>
       </c>
-      <c r="H34" t="s">
-        <v>556</v>
-      </c>
-      <c r="I34" t="s">
-        <v>557</v>
-      </c>
-      <c r="K34" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK34" t="s">
+      <c r="BL34" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM34" t="s">
         <v>714</v>
       </c>
-      <c r="BL34" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>715</v>
-      </c>
       <c r="CN34" t="s">
         <v>545</v>
       </c>
       <c r="EE34" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF34" t="s">
         <v>634</v>
       </c>
-      <c r="EF34" t="s">
-        <v>635</v>
-      </c>
       <c r="EG34" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH34" t="s">
         <v>565</v>
       </c>
-      <c r="EH34" t="s">
-        <v>566</v>
-      </c>
       <c r="FO34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP34" t="s">
         <v>545</v>
@@ -7916,67 +7801,64 @@
         <v>542</v>
       </c>
       <c r="E35" t="s">
+        <v>715</v>
+      </c>
+      <c r="F35" t="s">
         <v>716</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>717</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>555</v>
+      </c>
+      <c r="I35" t="s">
+        <v>556</v>
+      </c>
+      <c r="K35" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK35" t="s">
         <v>718</v>
       </c>
-      <c r="H35" t="s">
-        <v>556</v>
-      </c>
-      <c r="I35" t="s">
-        <v>557</v>
-      </c>
-      <c r="K35" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK35" t="s">
+      <c r="BL35" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM35" t="s">
         <v>719</v>
       </c>
-      <c r="BL35" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM35" t="s">
-        <v>720</v>
-      </c>
       <c r="CN35" t="s">
         <v>545</v>
       </c>
       <c r="EE35" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF35" t="s">
         <v>634</v>
       </c>
-      <c r="EF35" t="s">
-        <v>635</v>
-      </c>
       <c r="EG35" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH35" t="s">
         <v>565</v>
       </c>
-      <c r="EH35" t="s">
-        <v>566</v>
-      </c>
       <c r="FO35" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP35" t="s">
         <v>545</v>
@@ -7993,73 +7875,70 @@
         <v>542</v>
       </c>
       <c r="E36" t="s">
+        <v>720</v>
+      </c>
+      <c r="F36" t="s">
         <v>721</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>722</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>555</v>
+      </c>
+      <c r="I36" t="s">
+        <v>556</v>
+      </c>
+      <c r="K36" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK36" t="s">
         <v>723</v>
       </c>
-      <c r="H36" t="s">
-        <v>556</v>
-      </c>
-      <c r="I36" t="s">
-        <v>557</v>
-      </c>
-      <c r="K36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK36" t="s">
+      <c r="BL36" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM36" t="s">
         <v>724</v>
       </c>
-      <c r="BL36" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM36" t="s">
+      <c r="CN36" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE36" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF36" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG36" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH36" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO36" t="s">
+        <v>652</v>
+      </c>
+      <c r="FP36" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA36" t="s">
         <v>725</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE36" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF36" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG36" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH36" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO36" t="s">
-        <v>653</v>
-      </c>
-      <c r="FP36" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA36" t="s">
-        <v>726</v>
       </c>
       <c r="GB36" t="s">
         <v>545</v>
@@ -8073,73 +7952,70 @@
         <v>542</v>
       </c>
       <c r="E37" t="s">
+        <v>726</v>
+      </c>
+      <c r="F37" t="s">
         <v>727</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>728</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>555</v>
+      </c>
+      <c r="I37" t="s">
+        <v>556</v>
+      </c>
+      <c r="K37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>657</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM37" t="s">
         <v>729</v>
       </c>
-      <c r="H37" t="s">
-        <v>556</v>
-      </c>
-      <c r="I37" t="s">
-        <v>557</v>
-      </c>
-      <c r="K37" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>658</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM37" t="s">
+      <c r="CN37" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE37" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF37" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG37" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH37" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO37" t="s">
+        <v>652</v>
+      </c>
+      <c r="FP37" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA37" t="s">
         <v>730</v>
-      </c>
-      <c r="CN37" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE37" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF37" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG37" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH37" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO37" t="s">
-        <v>653</v>
-      </c>
-      <c r="FP37" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA37" t="s">
-        <v>731</v>
       </c>
       <c r="GB37" t="s">
         <v>545</v>
@@ -8153,73 +8029,70 @@
         <v>542</v>
       </c>
       <c r="E38" t="s">
+        <v>731</v>
+      </c>
+      <c r="F38" t="s">
         <v>732</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>733</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>555</v>
+      </c>
+      <c r="I38" t="s">
+        <v>556</v>
+      </c>
+      <c r="K38" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK38" t="s">
         <v>734</v>
       </c>
-      <c r="H38" t="s">
-        <v>556</v>
-      </c>
-      <c r="I38" t="s">
-        <v>557</v>
-      </c>
-      <c r="K38" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI38" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK38" t="s">
+      <c r="BL38" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM38" t="s">
         <v>735</v>
       </c>
-      <c r="BL38" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT38" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU38" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM38" t="s">
+      <c r="CN38" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE38" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF38" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG38" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH38" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO38" t="s">
+        <v>652</v>
+      </c>
+      <c r="FP38" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA38" t="s">
         <v>736</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE38" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF38" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG38" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH38" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO38" t="s">
-        <v>653</v>
-      </c>
-      <c r="FP38" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA38" t="s">
-        <v>737</v>
       </c>
       <c r="GB38" t="s">
         <v>545</v>
@@ -8233,67 +8106,64 @@
         <v>542</v>
       </c>
       <c r="E39" t="s">
+        <v>737</v>
+      </c>
+      <c r="F39" t="s">
         <v>738</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>739</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>555</v>
+      </c>
+      <c r="I39" t="s">
+        <v>556</v>
+      </c>
+      <c r="K39" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>703</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM39" t="s">
         <v>740</v>
       </c>
-      <c r="H39" t="s">
-        <v>556</v>
-      </c>
-      <c r="I39" t="s">
-        <v>557</v>
-      </c>
-      <c r="K39" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI39" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ39" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>704</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT39" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU39" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM39" t="s">
-        <v>741</v>
-      </c>
       <c r="CN39" t="s">
         <v>545</v>
       </c>
       <c r="EE39" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF39" t="s">
         <v>634</v>
       </c>
-      <c r="EF39" t="s">
-        <v>635</v>
-      </c>
       <c r="EG39" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH39" t="s">
         <v>565</v>
       </c>
-      <c r="EH39" t="s">
-        <v>566</v>
-      </c>
       <c r="FO39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP39" t="s">
         <v>545</v>
@@ -8310,67 +8180,64 @@
         <v>542</v>
       </c>
       <c r="E40" t="s">
+        <v>741</v>
+      </c>
+      <c r="F40" t="s">
         <v>742</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>743</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>555</v>
+      </c>
+      <c r="I40" t="s">
+        <v>556</v>
+      </c>
+      <c r="K40" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK40" t="s">
         <v>744</v>
       </c>
-      <c r="H40" t="s">
-        <v>556</v>
-      </c>
-      <c r="I40" t="s">
-        <v>557</v>
-      </c>
-      <c r="K40" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI40" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ40" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK40" t="s">
+      <c r="BL40" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM40" t="s">
         <v>745</v>
       </c>
-      <c r="BL40" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT40" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU40" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM40" t="s">
-        <v>746</v>
-      </c>
       <c r="CN40" t="s">
         <v>545</v>
       </c>
       <c r="EE40" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF40" t="s">
         <v>634</v>
       </c>
-      <c r="EF40" t="s">
-        <v>635</v>
-      </c>
       <c r="EG40" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH40" t="s">
         <v>565</v>
       </c>
-      <c r="EH40" t="s">
-        <v>566</v>
-      </c>
       <c r="FO40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP40" t="s">
         <v>545</v>
@@ -8387,67 +8254,64 @@
         <v>542</v>
       </c>
       <c r="E41" t="s">
+        <v>746</v>
+      </c>
+      <c r="F41" t="s">
         <v>747</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>748</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I41" t="s">
+        <v>556</v>
+      </c>
+      <c r="K41" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK41" t="s">
         <v>749</v>
       </c>
-      <c r="H41" t="s">
-        <v>556</v>
-      </c>
-      <c r="I41" t="s">
-        <v>557</v>
-      </c>
-      <c r="K41" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI41" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK41" t="s">
+      <c r="BL41" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM41" t="s">
         <v>750</v>
       </c>
-      <c r="BL41" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT41" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU41" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM41" t="s">
-        <v>751</v>
-      </c>
       <c r="CN41" t="s">
         <v>545</v>
       </c>
       <c r="EE41" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF41" t="s">
         <v>634</v>
       </c>
-      <c r="EF41" t="s">
-        <v>635</v>
-      </c>
       <c r="EG41" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH41" t="s">
         <v>565</v>
       </c>
-      <c r="EH41" t="s">
-        <v>566</v>
-      </c>
       <c r="FO41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP41" t="s">
         <v>545</v>
@@ -8464,67 +8328,64 @@
         <v>542</v>
       </c>
       <c r="E42" t="s">
+        <v>751</v>
+      </c>
+      <c r="F42" t="s">
         <v>752</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>753</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>555</v>
+      </c>
+      <c r="I42" t="s">
+        <v>556</v>
+      </c>
+      <c r="K42" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK42" t="s">
         <v>754</v>
       </c>
-      <c r="H42" t="s">
-        <v>556</v>
-      </c>
-      <c r="I42" t="s">
-        <v>557</v>
-      </c>
-      <c r="K42" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI42" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ42" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK42" t="s">
+      <c r="BL42" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM42" t="s">
         <v>755</v>
       </c>
-      <c r="BL42" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT42" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU42" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV42" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM42" t="s">
-        <v>756</v>
-      </c>
       <c r="CN42" t="s">
         <v>545</v>
       </c>
       <c r="EE42" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF42" t="s">
         <v>634</v>
       </c>
-      <c r="EF42" t="s">
-        <v>635</v>
-      </c>
       <c r="EG42" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH42" t="s">
         <v>565</v>
       </c>
-      <c r="EH42" t="s">
-        <v>566</v>
-      </c>
       <c r="FO42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP42" t="s">
         <v>545</v>
@@ -8541,67 +8402,64 @@
         <v>542</v>
       </c>
       <c r="E43" t="s">
+        <v>756</v>
+      </c>
+      <c r="F43" t="s">
         <v>757</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>758</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>555</v>
+      </c>
+      <c r="I43" t="s">
+        <v>556</v>
+      </c>
+      <c r="K43" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>734</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV43" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM43" t="s">
         <v>759</v>
       </c>
-      <c r="H43" t="s">
-        <v>556</v>
-      </c>
-      <c r="I43" t="s">
-        <v>557</v>
-      </c>
-      <c r="K43" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH43" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI43" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ43" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>735</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT43" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU43" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV43" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM43" t="s">
-        <v>760</v>
-      </c>
       <c r="CN43" t="s">
         <v>545</v>
       </c>
       <c r="EE43" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF43" t="s">
         <v>634</v>
       </c>
-      <c r="EF43" t="s">
-        <v>635</v>
-      </c>
       <c r="EG43" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH43" t="s">
         <v>565</v>
       </c>
-      <c r="EH43" t="s">
-        <v>566</v>
-      </c>
       <c r="FO43" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP43" t="s">
         <v>545</v>
@@ -8618,67 +8476,64 @@
         <v>542</v>
       </c>
       <c r="E44" t="s">
+        <v>760</v>
+      </c>
+      <c r="F44" t="s">
         <v>761</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>762</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>555</v>
+      </c>
+      <c r="I44" t="s">
+        <v>556</v>
+      </c>
+      <c r="K44" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>557</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM44" t="s">
         <v>763</v>
       </c>
-      <c r="H44" t="s">
-        <v>556</v>
-      </c>
-      <c r="I44" t="s">
-        <v>557</v>
-      </c>
-      <c r="K44" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH44" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI44" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ44" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>558</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT44" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU44" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV44" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM44" t="s">
-        <v>764</v>
-      </c>
       <c r="CN44" t="s">
         <v>545</v>
       </c>
       <c r="EE44" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF44" t="s">
         <v>634</v>
       </c>
-      <c r="EF44" t="s">
-        <v>635</v>
-      </c>
       <c r="EG44" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH44" t="s">
         <v>565</v>
       </c>
-      <c r="EH44" t="s">
-        <v>566</v>
-      </c>
       <c r="FO44" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP44" t="s">
         <v>545</v>
@@ -8695,67 +8550,64 @@
         <v>542</v>
       </c>
       <c r="E45" t="s">
+        <v>764</v>
+      </c>
+      <c r="F45" t="s">
         <v>765</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>766</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>555</v>
+      </c>
+      <c r="I45" t="s">
+        <v>556</v>
+      </c>
+      <c r="K45" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>673</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM45" t="s">
         <v>767</v>
       </c>
-      <c r="H45" t="s">
-        <v>556</v>
-      </c>
-      <c r="I45" t="s">
-        <v>557</v>
-      </c>
-      <c r="K45" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH45" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI45" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ45" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>674</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT45" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU45" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV45" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM45" t="s">
-        <v>768</v>
-      </c>
       <c r="CN45" t="s">
         <v>545</v>
       </c>
       <c r="EE45" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF45" t="s">
         <v>634</v>
       </c>
-      <c r="EF45" t="s">
-        <v>635</v>
-      </c>
       <c r="EG45" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH45" t="s">
         <v>565</v>
       </c>
-      <c r="EH45" t="s">
-        <v>566</v>
-      </c>
       <c r="FO45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP45" t="s">
         <v>545</v>
@@ -8772,67 +8624,64 @@
         <v>542</v>
       </c>
       <c r="E46" t="s">
+        <v>768</v>
+      </c>
+      <c r="F46" t="s">
         <v>769</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>770</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>555</v>
+      </c>
+      <c r="I46" t="s">
+        <v>556</v>
+      </c>
+      <c r="K46" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK46" t="s">
         <v>771</v>
       </c>
-      <c r="H46" t="s">
-        <v>556</v>
-      </c>
-      <c r="I46" t="s">
-        <v>557</v>
-      </c>
-      <c r="K46" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH46" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI46" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ46" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK46" t="s">
+      <c r="BL46" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM46" t="s">
         <v>772</v>
       </c>
-      <c r="BL46" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT46" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU46" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV46" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM46" t="s">
-        <v>773</v>
-      </c>
       <c r="CN46" t="s">
         <v>545</v>
       </c>
       <c r="EE46" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF46" t="s">
         <v>634</v>
       </c>
-      <c r="EF46" t="s">
-        <v>635</v>
-      </c>
       <c r="EG46" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH46" t="s">
         <v>565</v>
       </c>
-      <c r="EH46" t="s">
-        <v>566</v>
-      </c>
       <c r="FO46" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP46" t="s">
         <v>545</v>
@@ -8849,67 +8698,64 @@
         <v>542</v>
       </c>
       <c r="E47" t="s">
+        <v>773</v>
+      </c>
+      <c r="F47" t="s">
         <v>774</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>775</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>555</v>
+      </c>
+      <c r="I47" t="s">
+        <v>556</v>
+      </c>
+      <c r="K47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK47" t="s">
         <v>776</v>
       </c>
-      <c r="H47" t="s">
-        <v>556</v>
-      </c>
-      <c r="I47" t="s">
-        <v>557</v>
-      </c>
-      <c r="K47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH47" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI47" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ47" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK47" t="s">
+      <c r="BL47" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM47" t="s">
         <v>777</v>
       </c>
-      <c r="BL47" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT47" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU47" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV47" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM47" t="s">
-        <v>778</v>
-      </c>
       <c r="CN47" t="s">
         <v>545</v>
       </c>
       <c r="EE47" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF47" t="s">
         <v>634</v>
       </c>
-      <c r="EF47" t="s">
-        <v>635</v>
-      </c>
       <c r="EG47" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH47" t="s">
         <v>565</v>
       </c>
-      <c r="EH47" t="s">
-        <v>566</v>
-      </c>
       <c r="FO47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP47" t="s">
         <v>545</v>
@@ -8926,67 +8772,64 @@
         <v>542</v>
       </c>
       <c r="E48" t="s">
+        <v>778</v>
+      </c>
+      <c r="F48" t="s">
         <v>779</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>780</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>555</v>
+      </c>
+      <c r="I48" t="s">
+        <v>556</v>
+      </c>
+      <c r="K48" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>678</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV48" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM48" t="s">
         <v>781</v>
       </c>
-      <c r="H48" t="s">
-        <v>556</v>
-      </c>
-      <c r="I48" t="s">
-        <v>557</v>
-      </c>
-      <c r="K48" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH48" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI48" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ48" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>679</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT48" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU48" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV48" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM48" t="s">
-        <v>782</v>
-      </c>
       <c r="CN48" t="s">
         <v>545</v>
       </c>
       <c r="EE48" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF48" t="s">
         <v>634</v>
       </c>
-      <c r="EF48" t="s">
-        <v>635</v>
-      </c>
       <c r="EG48" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH48" t="s">
         <v>565</v>
       </c>
-      <c r="EH48" t="s">
-        <v>566</v>
-      </c>
       <c r="FO48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP48" t="s">
         <v>545</v>
@@ -9003,67 +8846,64 @@
         <v>542</v>
       </c>
       <c r="E49" t="s">
+        <v>782</v>
+      </c>
+      <c r="F49" t="s">
         <v>783</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>784</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>555</v>
+      </c>
+      <c r="I49" t="s">
+        <v>556</v>
+      </c>
+      <c r="K49" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>612</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM49" t="s">
         <v>785</v>
       </c>
-      <c r="H49" t="s">
-        <v>556</v>
-      </c>
-      <c r="I49" t="s">
-        <v>557</v>
-      </c>
-      <c r="K49" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH49" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI49" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ49" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>613</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT49" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU49" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV49" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM49" t="s">
-        <v>786</v>
-      </c>
       <c r="CN49" t="s">
         <v>545</v>
       </c>
       <c r="EE49" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF49" t="s">
         <v>634</v>
       </c>
-      <c r="EF49" t="s">
-        <v>635</v>
-      </c>
       <c r="EG49" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH49" t="s">
         <v>565</v>
       </c>
-      <c r="EH49" t="s">
-        <v>566</v>
-      </c>
       <c r="FO49" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP49" t="s">
         <v>545</v>
@@ -9080,67 +8920,64 @@
         <v>542</v>
       </c>
       <c r="E50" t="s">
+        <v>786</v>
+      </c>
+      <c r="F50" t="s">
         <v>787</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>788</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>555</v>
+      </c>
+      <c r="I50" t="s">
+        <v>556</v>
+      </c>
+      <c r="K50" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ50" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK50" t="s">
+        <v>771</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU50" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV50" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM50" t="s">
         <v>789</v>
       </c>
-      <c r="H50" t="s">
-        <v>556</v>
-      </c>
-      <c r="I50" t="s">
-        <v>557</v>
-      </c>
-      <c r="K50" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH50" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI50" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ50" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>772</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT50" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU50" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV50" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM50" t="s">
-        <v>790</v>
-      </c>
       <c r="CN50" t="s">
         <v>545</v>
       </c>
       <c r="EE50" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF50" t="s">
         <v>634</v>
       </c>
-      <c r="EF50" t="s">
-        <v>635</v>
-      </c>
       <c r="EG50" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH50" t="s">
         <v>565</v>
       </c>
-      <c r="EH50" t="s">
-        <v>566</v>
-      </c>
       <c r="FO50" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP50" t="s">
         <v>545</v>
@@ -9157,67 +8994,64 @@
         <v>542</v>
       </c>
       <c r="E51" t="s">
+        <v>790</v>
+      </c>
+      <c r="F51" t="s">
         <v>791</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>792</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>555</v>
+      </c>
+      <c r="I51" t="s">
+        <v>556</v>
+      </c>
+      <c r="K51" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK51" t="s">
         <v>793</v>
       </c>
-      <c r="H51" t="s">
-        <v>556</v>
-      </c>
-      <c r="I51" t="s">
-        <v>557</v>
-      </c>
-      <c r="K51" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH51" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI51" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ51" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK51" t="s">
+      <c r="BL51" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM51" t="s">
         <v>794</v>
       </c>
-      <c r="BL51" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT51" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU51" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV51" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM51" t="s">
-        <v>795</v>
-      </c>
       <c r="CN51" t="s">
         <v>545</v>
       </c>
       <c r="EE51" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF51" t="s">
         <v>634</v>
       </c>
-      <c r="EF51" t="s">
-        <v>635</v>
-      </c>
       <c r="EG51" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH51" t="s">
         <v>565</v>
       </c>
-      <c r="EH51" t="s">
-        <v>566</v>
-      </c>
       <c r="FO51" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP51" t="s">
         <v>545</v>
@@ -9234,67 +9068,64 @@
         <v>542</v>
       </c>
       <c r="E52" t="s">
+        <v>795</v>
+      </c>
+      <c r="F52" t="s">
         <v>796</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>797</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>555</v>
+      </c>
+      <c r="I52" t="s">
+        <v>556</v>
+      </c>
+      <c r="K52" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK52" t="s">
         <v>798</v>
       </c>
-      <c r="H52" t="s">
-        <v>556</v>
-      </c>
-      <c r="I52" t="s">
-        <v>557</v>
-      </c>
-      <c r="K52" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH52" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI52" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ52" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK52" t="s">
+      <c r="BL52" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU52" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM52" t="s">
         <v>799</v>
       </c>
-      <c r="BL52" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT52" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU52" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV52" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM52" t="s">
-        <v>800</v>
-      </c>
       <c r="CN52" t="s">
         <v>545</v>
       </c>
       <c r="EE52" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF52" t="s">
         <v>634</v>
       </c>
-      <c r="EF52" t="s">
-        <v>635</v>
-      </c>
       <c r="EG52" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH52" t="s">
         <v>565</v>
       </c>
-      <c r="EH52" t="s">
-        <v>566</v>
-      </c>
       <c r="FO52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP52" t="s">
         <v>545</v>
@@ -9311,67 +9142,64 @@
         <v>542</v>
       </c>
       <c r="E53" t="s">
+        <v>800</v>
+      </c>
+      <c r="F53" t="s">
         <v>801</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>802</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>555</v>
+      </c>
+      <c r="I53" t="s">
+        <v>556</v>
+      </c>
+      <c r="K53" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>612</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV53" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM53" t="s">
         <v>803</v>
       </c>
-      <c r="H53" t="s">
-        <v>556</v>
-      </c>
-      <c r="I53" t="s">
-        <v>557</v>
-      </c>
-      <c r="K53" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH53" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI53" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ53" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK53" t="s">
-        <v>613</v>
-      </c>
-      <c r="BL53" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT53" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU53" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV53" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM53" t="s">
-        <v>804</v>
-      </c>
       <c r="CN53" t="s">
         <v>545</v>
       </c>
       <c r="EE53" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF53" t="s">
         <v>634</v>
       </c>
-      <c r="EF53" t="s">
-        <v>635</v>
-      </c>
       <c r="EG53" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH53" t="s">
         <v>565</v>
       </c>
-      <c r="EH53" t="s">
-        <v>566</v>
-      </c>
       <c r="FO53" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP53" t="s">
         <v>545</v>
@@ -9388,67 +9216,64 @@
         <v>542</v>
       </c>
       <c r="E54" t="s">
+        <v>804</v>
+      </c>
+      <c r="F54" t="s">
         <v>805</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>806</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>555</v>
+      </c>
+      <c r="I54" t="s">
+        <v>556</v>
+      </c>
+      <c r="K54" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK54" t="s">
         <v>807</v>
       </c>
-      <c r="H54" t="s">
-        <v>556</v>
-      </c>
-      <c r="I54" t="s">
-        <v>557</v>
-      </c>
-      <c r="K54" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH54" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI54" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ54" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK54" t="s">
+      <c r="BL54" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT54" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU54" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV54" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM54" t="s">
         <v>808</v>
       </c>
-      <c r="BL54" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT54" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU54" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV54" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM54" t="s">
-        <v>809</v>
-      </c>
       <c r="CN54" t="s">
         <v>545</v>
       </c>
       <c r="EE54" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF54" t="s">
         <v>634</v>
       </c>
-      <c r="EF54" t="s">
-        <v>635</v>
-      </c>
       <c r="EG54" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH54" t="s">
         <v>565</v>
       </c>
-      <c r="EH54" t="s">
-        <v>566</v>
-      </c>
       <c r="FO54" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="FP54" t="s">
         <v>545</v>
@@ -9465,64 +9290,61 @@
         <v>542</v>
       </c>
       <c r="E55" t="s">
+        <v>809</v>
+      </c>
+      <c r="F55" t="s">
         <v>810</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>811</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>555</v>
+      </c>
+      <c r="I55" t="s">
+        <v>556</v>
+      </c>
+      <c r="K55" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK55" t="s">
         <v>812</v>
       </c>
-      <c r="H55" t="s">
-        <v>556</v>
-      </c>
-      <c r="I55" t="s">
-        <v>557</v>
-      </c>
-      <c r="K55" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH55" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI55" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ55" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK55" t="s">
+      <c r="BL55" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>650</v>
+      </c>
+      <c r="CM55" t="s">
         <v>813</v>
       </c>
-      <c r="BL55" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT55" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU55" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV55" t="s">
-        <v>651</v>
-      </c>
-      <c r="CM55" t="s">
-        <v>814</v>
-      </c>
       <c r="CN55" t="s">
         <v>545</v>
       </c>
       <c r="EE55" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF55" t="s">
         <v>634</v>
       </c>
-      <c r="EF55" t="s">
-        <v>635</v>
-      </c>
       <c r="EG55" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH55" t="s">
         <v>565</v>
-      </c>
-      <c r="EH55" t="s">
-        <v>566</v>
       </c>
       <c r="FP55" t="s">
         <v>545</v>
@@ -9539,73 +9361,70 @@
         <v>542</v>
       </c>
       <c r="E56" t="s">
+        <v>814</v>
+      </c>
+      <c r="F56" t="s">
         <v>815</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>816</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>555</v>
+      </c>
+      <c r="I56" t="s">
+        <v>556</v>
+      </c>
+      <c r="K56" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK56" t="s">
         <v>817</v>
       </c>
-      <c r="H56" t="s">
-        <v>556</v>
-      </c>
-      <c r="I56" t="s">
-        <v>557</v>
-      </c>
-      <c r="K56" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH56" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI56" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ56" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK56" t="s">
+      <c r="BL56" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT56" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU56" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV56" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM56" t="s">
         <v>818</v>
       </c>
-      <c r="BL56" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT56" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU56" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV56" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM56" t="s">
+      <c r="CN56" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE56" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF56" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG56" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH56" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO56" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP56" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA56" t="s">
         <v>819</v>
-      </c>
-      <c r="CN56" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE56" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF56" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG56" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH56" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO56" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP56" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA56" t="s">
-        <v>820</v>
       </c>
       <c r="GB56" t="s">
         <v>545</v>
@@ -9619,73 +9438,70 @@
         <v>542</v>
       </c>
       <c r="E57" t="s">
+        <v>820</v>
+      </c>
+      <c r="F57" t="s">
         <v>821</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>822</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>555</v>
+      </c>
+      <c r="I57" t="s">
+        <v>556</v>
+      </c>
+      <c r="K57" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK57" t="s">
         <v>823</v>
       </c>
-      <c r="H57" t="s">
-        <v>556</v>
-      </c>
-      <c r="I57" t="s">
-        <v>557</v>
-      </c>
-      <c r="K57" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH57" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI57" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ57" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK57" t="s">
+      <c r="BL57" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU57" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV57" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM57" t="s">
         <v>824</v>
       </c>
-      <c r="BL57" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT57" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU57" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV57" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM57" t="s">
+      <c r="CN57" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE57" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF57" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG57" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH57" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO57" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP57" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA57" t="s">
         <v>825</v>
-      </c>
-      <c r="CN57" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE57" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF57" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG57" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH57" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO57" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP57" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA57" t="s">
-        <v>826</v>
       </c>
       <c r="GB57" t="s">
         <v>545</v>
@@ -9699,67 +9515,64 @@
         <v>542</v>
       </c>
       <c r="E58" t="s">
+        <v>826</v>
+      </c>
+      <c r="F58" t="s">
         <v>827</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>828</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>555</v>
+      </c>
+      <c r="I58" t="s">
+        <v>556</v>
+      </c>
+      <c r="K58" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK58" t="s">
         <v>829</v>
       </c>
-      <c r="H58" t="s">
-        <v>556</v>
-      </c>
-      <c r="I58" t="s">
-        <v>557</v>
-      </c>
-      <c r="K58" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH58" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI58" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ58" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK58" t="s">
+      <c r="BL58" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT58" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU58" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV58" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM58" t="s">
         <v>830</v>
       </c>
-      <c r="BL58" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT58" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU58" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV58" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM58" t="s">
-        <v>831</v>
-      </c>
       <c r="CN58" t="s">
         <v>545</v>
       </c>
       <c r="EE58" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF58" t="s">
         <v>580</v>
       </c>
-      <c r="EF58" t="s">
-        <v>581</v>
-      </c>
       <c r="EG58" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH58" t="s">
         <v>565</v>
       </c>
-      <c r="EH58" t="s">
+      <c r="FO58" t="s">
         <v>566</v>
-      </c>
-      <c r="FO58" t="s">
-        <v>567</v>
       </c>
       <c r="FP58" t="s">
         <v>545</v>
@@ -9776,73 +9589,70 @@
         <v>542</v>
       </c>
       <c r="E59" t="s">
+        <v>831</v>
+      </c>
+      <c r="F59" t="s">
         <v>832</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>833</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>555</v>
+      </c>
+      <c r="I59" t="s">
+        <v>556</v>
+      </c>
+      <c r="K59" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK59" t="s">
         <v>834</v>
       </c>
-      <c r="H59" t="s">
-        <v>556</v>
-      </c>
-      <c r="I59" t="s">
-        <v>557</v>
-      </c>
-      <c r="K59" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH59" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI59" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ59" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK59" t="s">
+      <c r="BL59" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV59" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM59" t="s">
         <v>835</v>
       </c>
-      <c r="BL59" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT59" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU59" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV59" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM59" t="s">
+      <c r="CN59" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE59" t="s">
+        <v>579</v>
+      </c>
+      <c r="EF59" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG59" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH59" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO59" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP59" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA59" t="s">
         <v>836</v>
-      </c>
-      <c r="CN59" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE59" t="s">
-        <v>580</v>
-      </c>
-      <c r="EF59" t="s">
-        <v>581</v>
-      </c>
-      <c r="EG59" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH59" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO59" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP59" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA59" t="s">
-        <v>837</v>
       </c>
       <c r="GB59" t="s">
         <v>545</v>
@@ -9856,73 +9666,70 @@
         <v>542</v>
       </c>
       <c r="E60" t="s">
+        <v>837</v>
+      </c>
+      <c r="F60" t="s">
+        <v>815</v>
+      </c>
+      <c r="G60" t="s">
         <v>838</v>
       </c>
-      <c r="F60" t="s">
-        <v>816</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>555</v>
+      </c>
+      <c r="I60" t="s">
+        <v>556</v>
+      </c>
+      <c r="K60" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK60" t="s">
         <v>839</v>
       </c>
-      <c r="H60" t="s">
-        <v>556</v>
-      </c>
-      <c r="I60" t="s">
-        <v>557</v>
-      </c>
-      <c r="K60" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH60" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI60" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ60" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK60" t="s">
+      <c r="BL60" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV60" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM60" t="s">
         <v>840</v>
       </c>
-      <c r="BL60" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT60" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU60" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV60" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM60" t="s">
+      <c r="CN60" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE60" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF60" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG60" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH60" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO60" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP60" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA60" t="s">
         <v>841</v>
-      </c>
-      <c r="CN60" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE60" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF60" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG60" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH60" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO60" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP60" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA60" t="s">
-        <v>842</v>
       </c>
       <c r="GB60" t="s">
         <v>545</v>
@@ -9936,73 +9743,70 @@
         <v>542</v>
       </c>
       <c r="E61" t="s">
+        <v>842</v>
+      </c>
+      <c r="F61" t="s">
+        <v>821</v>
+      </c>
+      <c r="G61" t="s">
         <v>843</v>
       </c>
-      <c r="F61" t="s">
-        <v>822</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
+        <v>555</v>
+      </c>
+      <c r="I61" t="s">
+        <v>556</v>
+      </c>
+      <c r="K61" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK61" t="s">
         <v>844</v>
       </c>
-      <c r="H61" t="s">
-        <v>556</v>
-      </c>
-      <c r="I61" t="s">
-        <v>557</v>
-      </c>
-      <c r="K61" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH61" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI61" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ61" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK61" t="s">
+      <c r="BL61" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU61" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV61" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM61" t="s">
         <v>845</v>
       </c>
-      <c r="BL61" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT61" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU61" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV61" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM61" t="s">
+      <c r="CN61" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE61" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF61" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG61" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH61" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO61" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP61" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA61" t="s">
         <v>846</v>
-      </c>
-      <c r="CN61" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE61" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF61" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG61" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH61" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO61" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP61" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA61" t="s">
-        <v>847</v>
       </c>
       <c r="GB61" t="s">
         <v>545</v>
@@ -10016,73 +9820,70 @@
         <v>542</v>
       </c>
       <c r="E62" t="s">
+        <v>847</v>
+      </c>
+      <c r="F62" t="s">
+        <v>815</v>
+      </c>
+      <c r="G62" t="s">
         <v>848</v>
       </c>
-      <c r="F62" t="s">
-        <v>816</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
+        <v>555</v>
+      </c>
+      <c r="I62" t="s">
+        <v>556</v>
+      </c>
+      <c r="K62" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK62" t="s">
         <v>849</v>
       </c>
-      <c r="H62" t="s">
-        <v>556</v>
-      </c>
-      <c r="I62" t="s">
-        <v>557</v>
-      </c>
-      <c r="K62" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH62" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI62" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ62" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK62" t="s">
+      <c r="BL62" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU62" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM62" t="s">
         <v>850</v>
       </c>
-      <c r="BL62" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT62" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU62" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV62" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM62" t="s">
+      <c r="CN62" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE62" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF62" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG62" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH62" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO62" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP62" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA62" t="s">
         <v>851</v>
-      </c>
-      <c r="CN62" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE62" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF62" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG62" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH62" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO62" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP62" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA62" t="s">
-        <v>852</v>
       </c>
       <c r="GB62" t="s">
         <v>545</v>
@@ -10096,73 +9897,70 @@
         <v>542</v>
       </c>
       <c r="E63" t="s">
+        <v>852</v>
+      </c>
+      <c r="F63" t="s">
+        <v>821</v>
+      </c>
+      <c r="G63" t="s">
         <v>853</v>
       </c>
-      <c r="F63" t="s">
-        <v>822</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
+        <v>555</v>
+      </c>
+      <c r="I63" t="s">
+        <v>556</v>
+      </c>
+      <c r="K63" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK63" t="s">
         <v>854</v>
       </c>
-      <c r="H63" t="s">
-        <v>556</v>
-      </c>
-      <c r="I63" t="s">
-        <v>557</v>
-      </c>
-      <c r="K63" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH63" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI63" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ63" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK63" t="s">
+      <c r="BL63" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV63" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM63" t="s">
         <v>855</v>
       </c>
-      <c r="BL63" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT63" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU63" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV63" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM63" t="s">
+      <c r="CN63" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE63" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF63" t="s">
+        <v>634</v>
+      </c>
+      <c r="EG63" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH63" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO63" t="s">
+        <v>566</v>
+      </c>
+      <c r="FP63" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA63" t="s">
         <v>856</v>
-      </c>
-      <c r="CN63" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE63" t="s">
-        <v>634</v>
-      </c>
-      <c r="EF63" t="s">
-        <v>635</v>
-      </c>
-      <c r="EG63" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH63" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO63" t="s">
-        <v>567</v>
-      </c>
-      <c r="FP63" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA63" t="s">
-        <v>857</v>
       </c>
       <c r="GB63" t="s">
         <v>545</v>
@@ -10176,67 +9974,64 @@
         <v>542</v>
       </c>
       <c r="E64" t="s">
+        <v>857</v>
+      </c>
+      <c r="F64" t="s">
+        <v>810</v>
+      </c>
+      <c r="G64" t="s">
         <v>858</v>
       </c>
-      <c r="F64" t="s">
-        <v>811</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>555</v>
+      </c>
+      <c r="I64" t="s">
+        <v>556</v>
+      </c>
+      <c r="K64" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>812</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>568</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV64" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM64" t="s">
         <v>859</v>
       </c>
-      <c r="H64" t="s">
-        <v>556</v>
-      </c>
-      <c r="I64" t="s">
-        <v>557</v>
-      </c>
-      <c r="K64" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH64" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI64" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ64" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>813</v>
-      </c>
-      <c r="BL64" t="s">
-        <v>569</v>
-      </c>
-      <c r="BT64" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU64" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV64" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM64" t="s">
-        <v>860</v>
-      </c>
       <c r="CN64" t="s">
         <v>545</v>
       </c>
       <c r="EE64" t="s">
+        <v>633</v>
+      </c>
+      <c r="EF64" t="s">
         <v>634</v>
       </c>
-      <c r="EF64" t="s">
-        <v>635</v>
-      </c>
       <c r="EG64" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH64" t="s">
         <v>565</v>
       </c>
-      <c r="EH64" t="s">
+      <c r="FO64" t="s">
         <v>566</v>
-      </c>
-      <c r="FO64" t="s">
-        <v>567</v>
       </c>
       <c r="FP64" t="s">
         <v>545</v>

--- a/source_data/uploaders/Statements and speeches_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Statements and speeches_hierarchy_aspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EE442-B382-594C-BC71-8254B1EEAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839DDE51-4F3C-924D-9BAB-B3C5E651102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>26</t>
@@ -2965,7 +2965,7 @@
   <dimension ref="A1:HE64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source_data/uploaders/Statements and speeches_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Statements and speeches_hierarchy_aspace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marloelilongley/Projects/vt-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839DDE51-4F3C-924D-9BAB-B3C5E651102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFF03A4-898C-BC4C-8DE5-17805EDD680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
